--- a/data/trans_camb/POLIPATOLOGIA_DISC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_DISC-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,42</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,65</t>
+          <t>0,24; 2,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 7,13</t>
+          <t>1,1; 7,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 4,51</t>
+          <t>1,38; 4,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,3</t>
+          <t>2,33; 6,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 13,55</t>
+          <t>4,18; 13,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,43</t>
+          <t>0,8; 2,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,81</t>
+          <t>1,49; 3,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,36</t>
+          <t>3,05; 8,32</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,46</t>
+          <t>1,16; 3,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,11</t>
+          <t>0,83; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 5,83</t>
+          <t>1,86; 5,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 6,47</t>
+          <t>2,89; 6,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 6,33</t>
+          <t>2,77; 6,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,24</t>
+          <t>5,92; 11,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,38</t>
+          <t>2,32; 4,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,02</t>
+          <t>1,97; 3,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 7,84</t>
+          <t>4,55; 7,99</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,67</t>
+          <t>2,45; 5,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,04</t>
+          <t>2,2; 5,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,87; 8,55</t>
+          <t>4,05; 8,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,02</t>
+          <t>8,45; 13,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 10,13</t>
+          <t>6,06; 10,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,23; 14,02</t>
+          <t>8,98; 13,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 8,92</t>
+          <t>5,96; 8,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,6; 7,21</t>
+          <t>4,52; 6,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 10,44</t>
+          <t>7,44; 10,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,37; 12,44</t>
+          <t>7,3; 12,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 12,04</t>
+          <t>7,43; 11,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,85; 14,98</t>
+          <t>8,86; 14,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,84; 20,21</t>
+          <t>13,98; 20,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,19</t>
+          <t>13,41; 19,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,41; 24,24</t>
+          <t>18,14; 24,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,4; 15,47</t>
+          <t>11,32; 15,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,99; 14,82</t>
+          <t>11,0; 14,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,16; 18,55</t>
+          <t>14,06; 18,61</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,07; 20,55</t>
+          <t>12,85; 20,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,63; 18,52</t>
+          <t>11,52; 18,32</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,18</t>
+          <t>14,93; 21,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,79; 34,6</t>
+          <t>25,56; 35,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,56; 34,41</t>
+          <t>25,88; 34,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,64; 31,53</t>
+          <t>25,7; 31,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,9; 26,36</t>
+          <t>20,65; 26,43</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,66; 25,12</t>
+          <t>19,57; 25,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,26; 25,48</t>
+          <t>21,3; 25,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>37,21; 46,12</t>
+          <t>36,8; 45,7</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>21,53; 28,41</t>
+          <t>21,52; 28,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21,37; 26,51</t>
+          <t>21,17; 26,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52,81; 60,03</t>
+          <t>52,47; 60,18</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>40,83; 48,54</t>
+          <t>41,04; 48,62</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>29,16; 45,24</t>
+          <t>26,98; 45,06</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>47,05; 52,86</t>
+          <t>47,15; 53,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>33,8; 38,85</t>
+          <t>33,51; 39,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>26,04; 36,03</t>
+          <t>25,34; 36,02</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,68; 13,01</t>
+          <t>10,75; 13,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>8,27; 10,28</t>
+          <t>8,39; 10,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,21; 13,55</t>
+          <t>11,17; 13,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>20,3; 22,96</t>
+          <t>20,38; 23,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,17; 21,11</t>
+          <t>18,0; 20,88</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>20,69; 24,24</t>
+          <t>20,53; 24,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>16,03; 17,92</t>
+          <t>15,86; 17,8</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>13,67; 15,4</t>
+          <t>13,68; 15,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>16,78; 18,89</t>
+          <t>16,74; 18,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/POLIPATOLOGIA_DISC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_DISC-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,52</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,7</t>
+          <t>0,24; 2,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,46</t>
+          <t>1,4; 4,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,58</t>
+          <t>2,23; 6,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,41</t>
+          <t>0,81; 2,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 3,83</t>
+          <t>1,54; 3,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,64</t>
+          <t>1,13; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,11</t>
+          <t>0,78; 3,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -916,12 +916,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 6,35</t>
+          <t>2,88; 6,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,29</t>
+          <t>2,73; 6,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,32</t>
+          <t>2,18; 4,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 3,94</t>
+          <t>1,97; 4,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1117,12 +1117,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,68</t>
+          <t>2,45; 5,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,07</t>
+          <t>2,11; 4,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1132,12 +1132,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 13,16</t>
+          <t>8,46; 13,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,06; 10,02</t>
+          <t>6,12; 10,16</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 8,99</t>
+          <t>5,88; 8,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,95</t>
+          <t>4,49; 6,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1333,12 +1333,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,3; 12,61</t>
+          <t>7,23; 12,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 11,95</t>
+          <t>7,42; 12,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1348,12 +1348,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,98; 20,32</t>
+          <t>13,97; 20,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,41; 19,2</t>
+          <t>13,51; 19,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1363,12 +1363,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,32; 15,4</t>
+          <t>11,51; 15,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,0; 14,66</t>
+          <t>10,98; 14,67</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1549,12 +1549,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,85; 20,38</t>
+          <t>13,07; 20,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,52; 18,32</t>
+          <t>11,76; 18,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,56; 35,03</t>
+          <t>25,87; 34,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,88; 34,13</t>
+          <t>25,46; 34,31</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1579,12 +1579,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,65; 26,43</t>
+          <t>20,62; 26,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,57; 25,13</t>
+          <t>19,71; 25,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1765,12 +1765,12 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,8; 45,7</t>
+          <t>37,21; 46,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>21,52; 28,35</t>
+          <t>21,68; 28,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52,47; 60,18</t>
+          <t>52,39; 60,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>41,04; 48,62</t>
+          <t>40,98; 48,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
@@ -1795,12 +1795,12 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>47,15; 53,0</t>
+          <t>47,2; 52,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>33,51; 39,02</t>
+          <t>33,48; 38,89</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,75; 13,15</t>
+          <t>10,69; 13,07</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>8,39; 10,4</t>
+          <t>8,37; 10,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
@@ -1996,12 +1996,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>20,38; 23,22</t>
+          <t>20,35; 23,11</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,0; 20,88</t>
+          <t>18,27; 21,1</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
@@ -2011,12 +2011,12 @@
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>15,86; 17,8</t>
+          <t>15,91; 17,75</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>13,68; 15,4</t>
+          <t>13,7; 15,39</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">

--- a/data/trans_camb/POLIPATOLOGIA_DISC-Edad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_DISC-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,58</t>
+          <t>0,24; 2,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 7,57</t>
+          <t>1,04; 7,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,5</t>
+          <t>1,39; 4,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,56</t>
+          <t>2,28; 6,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,18; 13,4</t>
+          <t>3,88; 13,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,49</t>
+          <t>0,78; 2,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 3,73</t>
+          <t>1,56; 3,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 8,32</t>
+          <t>3,02; 8,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,54</t>
+          <t>1,23; 3,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,14</t>
+          <t>0,75; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,88</t>
+          <t>1,83; 5,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,31</t>
+          <t>2,92; 6,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 6,18</t>
+          <t>2,68; 6,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 11,18</t>
+          <t>6,1; 11,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,28</t>
+          <t>2,39; 4,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 4,08</t>
+          <t>2,02; 4,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,99</t>
+          <t>4,47; 7,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,58</t>
+          <t>2,41; 5,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,94</t>
+          <t>2,09; 5,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,41</t>
+          <t>3,87; 8,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,46; 13,22</t>
+          <t>8,3; 13,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,16</t>
+          <t>6,04; 10,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,98; 13,86</t>
+          <t>9,23; 14,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,88; 8,82</t>
+          <t>5,89; 8,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 6,87</t>
+          <t>4,6; 7,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,44; 10,48</t>
+          <t>7,34; 10,44</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 12,62</t>
+          <t>7,37; 12,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,42; 12,28</t>
+          <t>7,21; 12,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,86; 14,97</t>
+          <t>8,85; 14,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,97; 20,26</t>
+          <t>13,84; 20,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,51; 19,3</t>
+          <t>13,34; 19,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,14; 24,07</t>
+          <t>18,41; 24,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>11,51; 15,41</t>
+          <t>11,4; 15,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,98; 14,67</t>
+          <t>10,99; 14,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,06; 18,61</t>
+          <t>14,16; 18,55</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,07; 20,71</t>
+          <t>13,07; 20,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,76; 18,33</t>
+          <t>11,63; 18,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,93; 21,05</t>
+          <t>14,93; 21,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25,87; 34,93</t>
+          <t>25,79; 34,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,46; 34,31</t>
+          <t>25,56; 34,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,7; 31,52</t>
+          <t>25,64; 31,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20,62; 26,59</t>
+          <t>20,9; 26,36</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,71; 25,16</t>
+          <t>19,66; 25,12</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,3; 25,62</t>
+          <t>21,26; 25,48</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>37,21; 46,59</t>
+          <t>37,21; 46,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>21,68; 28,63</t>
+          <t>21,53; 28,41</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21,17; 26,43</t>
+          <t>21,37; 26,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>52,39; 60,0</t>
+          <t>52,81; 60,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>40,98; 48,77</t>
+          <t>40,83; 48,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>26,98; 45,06</t>
+          <t>29,16; 45,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>47,2; 52,99</t>
+          <t>47,05; 52,86</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>33,48; 38,89</t>
+          <t>33,8; 38,85</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>25,34; 36,02</t>
+          <t>26,04; 36,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,69; 13,07</t>
+          <t>10,68; 13,01</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>8,37; 10,35</t>
+          <t>8,27; 10,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,17; 13,55</t>
+          <t>11,21; 13,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>20,35; 23,11</t>
+          <t>20,3; 22,96</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,27; 21,1</t>
+          <t>18,17; 21,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>20,53; 24,21</t>
+          <t>20,69; 24,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>15,91; 17,75</t>
+          <t>16,03; 17,92</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>13,7; 15,39</t>
+          <t>13,67; 15,4</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>16,74; 18,79</t>
+          <t>16,78; 18,89</t>
         </is>
       </c>
     </row>
